--- a/luban/通用参数表.xlsx
+++ b/luban/通用参数表.xlsx
@@ -46,12 +46,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单位：信仰</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单位：信仰</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>##var</t>
   </si>
@@ -60,6 +84,12 @@
   </si>
   <si>
     <t>drawCost</t>
+  </si>
+  <si>
+    <t>drawCostGrowth</t>
+  </si>
+  <si>
+    <t>drawCostMax</t>
   </si>
   <si>
     <t>##type</t>
@@ -71,7 +101,13 @@
     <t>##</t>
   </si>
   <si>
-    <t>抽卡费用</t>
+    <t>初始抽卡费用</t>
+  </si>
+  <si>
+    <t>抽卡费用增幅</t>
+  </si>
+  <si>
+    <t>抽卡费用上限</t>
   </si>
 </sst>
 </file>
@@ -707,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +754,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1031,18 +1070,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1052,35 +1095,59 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:5">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/luban/通用参数表.xlsx
+++ b/luban/通用参数表.xlsx
@@ -70,12 +70,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单位s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单位s</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单位s</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -92,6 +128,30 @@
     <t>drawCostMax</t>
   </si>
   <si>
+    <t>handLimit</t>
+  </si>
+  <si>
+    <t>handMaxLimit</t>
+  </si>
+  <si>
+    <t>beliefDefault</t>
+  </si>
+  <si>
+    <t>sanityDefault</t>
+  </si>
+  <si>
+    <t>beliefProd</t>
+  </si>
+  <si>
+    <t>beliefProdRate</t>
+  </si>
+  <si>
+    <t>planeBaseRate</t>
+  </si>
+  <si>
+    <t>planeMaxRate</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -108,6 +168,30 @@
   </si>
   <si>
     <t>抽卡费用上限</t>
+  </si>
+  <si>
+    <t>初始手牌上限</t>
+  </si>
+  <si>
+    <t>最多手牌上限</t>
+  </si>
+  <si>
+    <t>初始信仰值</t>
+  </si>
+  <si>
+    <t>初始理智值</t>
+  </si>
+  <si>
+    <t>初始城市生产信仰</t>
+  </si>
+  <si>
+    <t>初始城市间隔</t>
+  </si>
+  <si>
+    <t>基础航线速率</t>
+  </si>
+  <si>
+    <t>航线速率上限</t>
   </si>
 </sst>
 </file>
@@ -1070,22 +1154,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="11" width="17.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1101,42 +1189,114 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:13">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1148,6 +1308,30 @@
       </c>
       <c r="E4" s="1">
         <v>99</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>300</v>
+      </c>
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
